--- a/data/cost.xlsx
+++ b/data/cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NetOptimize\py-ga-VRPTW\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\Python\NetOptimize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940BA91-7D55-41D3-A7AB-A86723881122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D2B82D-6D44-458C-B685-DED7A5C508D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9816" yWindow="2268" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,12 +456,12 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -555,7 +555,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -587,7 +587,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -619,7 +619,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -651,7 +651,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -683,7 +683,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -747,7 +747,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
